--- a/DEL ROSARIO_GRP4.xlsx
+++ b/DEL ROSARIO_GRP4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JustinAuditore\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Activities</t>
   </si>
@@ -43,6 +48,12 @@
   </si>
   <si>
     <t>SQL Query</t>
+  </si>
+  <si>
+    <t>1:00AM</t>
+  </si>
+  <si>
+    <t>Forms Designing/Other Functions</t>
   </si>
 </sst>
 </file>
@@ -96,6 +107,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -143,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -485,6 +499,23 @@
       </c>
       <c r="E6" s="2">
         <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43761</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43762</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
